--- a/tables/ProsCons - Copy.xlsx
+++ b/tables/ProsCons - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-device2\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A9F8F5-AC69-4910-8384-E16F4D880158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778D9151-2101-4508-90E9-3FF76849B103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="30" windowWidth="15120" windowHeight="14790" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
+    <workbookView xWindow="16980" yWindow="-15720" windowWidth="21165" windowHeight="14085" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
-  <si>
-    <t>Pros</t>
-  </si>
-  <si>
-    <t>Cons</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Survey123</t>
   </si>
@@ -62,25 +56,103 @@
     <t>Big Fin</t>
   </si>
   <si>
-    <t xml:space="preserve">Inexpensive, </t>
-  </si>
-  <si>
     <t>Software</t>
   </si>
   <si>
-    <t>PDF with R-scraping code</t>
-  </si>
-  <si>
-    <t>Exceptional Geo-referencing tools</t>
-  </si>
-  <si>
-    <t>Form building tool requires significant learning time; Trial study could not easilly configure a listing of lengths for review in the field</t>
-  </si>
-  <si>
-    <t>API connectors to external devices requires the Azure license</t>
-  </si>
-  <si>
-    <t>*Connectors to databases including SQL &amp; OneDrive is No-Code (easy to set up) and functions smoothly;   Able to set up on-the-fly editing, listings and frequency plots to review lengths in the field</t>
+    <t>Forms</t>
+  </si>
+  <si>
+    <t>Business Model/Price</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros: Geo-referencing of all objects; map layers available; </t>
+  </si>
+  <si>
+    <t>Cons: Only works on Android</t>
+  </si>
+  <si>
+    <t>Pros: Can connect to external sensors</t>
+  </si>
+  <si>
+    <t>Pros: Customized form specific to users application</t>
+  </si>
+  <si>
+    <t>One-time fee for configuration (~$2000)</t>
+  </si>
+  <si>
+    <t>Subscription (~$33 US / user / month)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros: </t>
+  </si>
+  <si>
+    <t>Data Interface</t>
+  </si>
+  <si>
+    <t>Con: difficult to configure desired format to view/edit data 'on-the-fly'  in the field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros: Provides many types of API connections e.g., to SQL, OneDrive </t>
+  </si>
+  <si>
+    <t>Con: API connection to Cloud base data or transfer needs to be customized</t>
+  </si>
+  <si>
+    <t>HW Platform Compatibility</t>
+  </si>
+  <si>
+    <t>External Devices</t>
+  </si>
+  <si>
+    <t>Cons: No photo options, no device connection options</t>
+  </si>
+  <si>
+    <t>Pros: Power Platform connection provide easy connectivity to SQL, OneDrive databases.
+Cons: Cannot read in data from local drive; cannot connect to sensors directly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros: Built on local Access db so compatible will all M.S. connectivity
+Con: No built in Cloud connectivity; no built in API </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros: Low-code/No-code; customizable; Uses Excel-like function; AI support
+Cons: 
+</t>
+  </si>
+  <si>
+    <t>Pros: Intuitive form-building interface; Auto-formating for modern look; 
+Cons: Complex design requires coding; Limits to nesting data</t>
+  </si>
+  <si>
+    <t>Pros: Can be run on all platform types: ios, Android, and PC (including off-line)</t>
+  </si>
+  <si>
+    <t>Cons: Only works on Windows</t>
+  </si>
+  <si>
+    <t>Pros: Can be run on all platform types: ios, Android, and PC (web only)</t>
+  </si>
+  <si>
+    <t>Pro: low security risk</t>
+  </si>
+  <si>
+    <t>Pro: Most inexpensive approach</t>
+  </si>
+  <si>
+    <t>Pro: PDF forms are usable on all platform types; PDF forms may be used on mobile apps using Adobe Reader app</t>
+  </si>
+  <si>
+    <t>Pro: R-based PDF scraped data can be formated in R and transferred remotely with R-based API protocols;
+Con: All data configuratons must be programmed</t>
+  </si>
+  <si>
+    <t>Cons: Not as many options to control PDF form input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF/R-scraping </t>
   </si>
 </sst>
 </file>
@@ -435,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A9D85-F5DE-46AF-938B-1B8F725A2C31}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,69 +518,143 @@
     <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
